--- a/modules_met_uitleg.xlsx
+++ b/modules_met_uitleg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandy\PycharmProjects\pythonProject33\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E1C288-21BB-40E0-9444-6B12DE042EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{31427CA0-1C81-4A7F-BD45-3407DE13BE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
